--- a/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. The committee will come to order. I do apologize for the delay. Strange as the Congress may be, we have burning questions and we had to talk about the baseball game. They already knew who won and who lost, but then it was beside the point.    Anyway, the Subcommittee on Indian, Insular, and Alaska Native Affairs will come to order. The subcommittee is meeting today to hear testimony on the following oversight topic: ``Examining Procedures Regarding Puerto Rico's Political Status and Economic Outlook.''    Under Rule 4(f), any oral statements on the hearing are limited to the Chairman and the Ranking Minority Member, and this allows us to hear from the witnesses. We do have two panels here today. Therefore, I ask unanimous consent that all Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee clerk by 5:00 p.m. today, or at the close of the hearing, whichever comes first.    [No response.]</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>412312</t>
   </si>
   <si>
-    <t>Gregorio Kilili Camacho Sablan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman. And buenos tardes, everyone. I apologize that it took me, from the Northern Marianas, a little over 500 years before we--I got to see my fellow people from Puerto Rico. At one time we all owed allegiance to a queen. It has been a long time after that allegiance to the queen that you became a part of the United States.    I want to begin by welcoming the witnesses to the hearing, particularly those who traveled from the Island of Puerto Rico to be with us today. I also want to recognize my good friend and colleague, Ms. Gutierrez from Illinois. And I think I saw Ms. Nydia Velazquez here earlier.    I want to especially welcome the leaders of Puerto Rico's three major political parties, as well as our former Natural Resources Committee colleagues, Congressmen and former governors, Luis Fortuno, Anibal Acevedo Vila, and Carlos Romero Barcelo.    Today's hearing will examine the link between the current economic conditions on Puerto Rico and the unresolved issue of the island's political status. I believe such an examination is fitting, given the severe fiscal difficulties the island is facing.    Currently, the government of Puerto Rico is $73 billion in debt, and there are real concerns that the central government, or one of its instrumentalities, may soon default on its bond payment.    I am from the Northern Mariana Islands, which is a commonwealth that has a permanent relationship with the United States. When Puerto Rico becomes a state, we are next in line, because we start first with the commonwealths, and then we do the others. That is a joke, OK? It is a joke. We have to lighten up the room.    [Laughter.]</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>412306</t>
   </si>
   <si>
-    <t>Pedro R. Pierluisi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pierluisi. Thank you, Chairman Young, Mr. Ranking Member, and members of the subcommittee. The facts are as follows.    Puerto Rico is a territory. If it does not wish to remain a territory, it can become a state or a sovereign nation, either fully independent or with the compact of free association with the United States. However, if Puerto Rico becomes a sovereign nation, future generations of island residents would not be American citizens.    My constituents have made countless contributions to this Nation in times of peace and war, serving in every military conflict since World War I. Many have made the ultimate sacrifice. When they do, their casket is flown back to this country, draped in the American flag. It takes real patriotism to fight for a nation you love, but one that does not treat you equally.    Puerto Rico has more U.S. citizens than 21 states, but my constituents cannot vote for President, have no Senators, and have a non-voting delegate in the House. Moreover, the Constitution gives Congress license to treat territories worse than states, and Congress often uses that license.    Territory status is the root cause of the crisis in Puerto Rico, because Puerto Rico is treated unequally under Federal programs. It is deprived of critical economic support. To compensate, the Puerto Rico government has borrowed heavily, which helps explain why the government and its instrumentalities have $72 billion in debt. In recent years, 250,000 island residents have relocated to the states, and these numbers are only growing. Once in the states they are entitled to full voting rights, and equal treatment under the law, rights they lack in Puerto Rico.    Let me mention two of the many ways that Puerto Rico's status hurts the quality of life of my constituents. First, Puerto Rico is treated unequally under Medicaid and Medicare. The impact on our healthcare system and on our fiscal health has been severe. Second, Congress has authorized each state government to permit its insolvent municipalities to adjust their debts under Chapter 9 of the Bankruptcy Code, but has not authorized Puerto Rico to do so. Thus, territory status is a significant reason why Puerto Rico has excessive debt, and the sole reason why it lacks a critical tool to manage that debt.    I have introduced bills to give Puerto Rico equal treatment under Federal health programs and Chapter 9. While I appreciate that the governor of Puerto Rico has endorsed these efforts, it is ironic that an anti-statehood administration is seeking state-like treatment for the territory in key policy areas. I seek equal treatment for Puerto Rico in all respects.    If you give us the same rights and responsibilities as our fellow American citizens, and let us rise or fall on our merits, we will rise. But if you continue to treat us like second-class citizens, don't profess to be surprised when we fall.    This is now the predominant view in Puerto Rico. In a 2012 referendum, a majority of voters rejected territory status, and more voters expressed a desire for statehood than any other option. At my initiative, Congress approved funding for a federally-sponsored referendum. Once I have the opportunity, I will use this funding to hold a vote on whether Puerto Rico should be admitted as a state, just like Alaska and Hawaii did. This is logical. Statehood won the 2012 referendum. So we should now vote on statehood, itself.    This is also fair. Those who support statehood can vote yes, and those who oppose it can vote no. This approach has brought support in Congress. I have introduced a bill to authorize a vote in Puerto Rico on whether the territory should be admitted to the Union. If a majority of voters say yes, Puerto Rico would become a state within 5 years. The bill has 109 co-sponsors from 39 states and territories, and more bipartisan backing than 99 percent of bills filed this year. Each co-sponsor refutes the single argument that the United States would not accept Puerto Rico as a state.    Puerto Rico's status is intolerable, and my constituents will no longer tolerate it. We want equality under the American flag, and we will settle for nothing less. Thank you.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rodriguez. Thank you, Chairman Young.</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t xml:space="preserve">    Mr. Young. Thank you, sir. Ruben Berrios, former Senator, Puerto Rican Senate Independence Party, you are up.</t>
   </si>
   <si>
-    <t>Berrios</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Berrios. Mr. Chairman and members of the subcommittee, the virtual bankruptcy of Puerto Rico's economy is a self-evident reality. Puerto Rican voters have repudiated the territorial status that is the root cause of our economic and social problems. The territorial status was never democratic and has now become tyrannical.    Internationally, the community of Latin American and Caribbean states has recently reaffirmed its support for the right of Puerto Rico to its self-determination and independence. And yet Congress refuses to comply with its decolonizing obligation toward Puerto Rico.    This subcommittee is well aware of Puerto Rico's status problem. For decades it has held hearings on the issue, and many in Puerto Rico can reasonably wonder whether this oversight hearing pursues a legitimate legislative purpose, or is merely a pro forma, partisan, quid pro quo. Only time will tell.    I shall utilize this hearing to publicly propose a route map toward the solution of Puerto Rico's status problem. The relationship between Puerto Rico's territorial status and our economic and social problems has been well summarized by Senator Ron Wyden, Chairman of the Committee on Energy and Natural Resources. I quote, ``Puerto Rico faces huge economic and social challenges. . . . The lack of resolution of Puerto Rico's status not only distracts from addressing these and other issues, it contributes to them. As the most recent reports from the President's Task Force on Puerto Rico's status found--and I quote--`identifying the most effective means of assisting the Puerto Rican economy depends on resolving the ultimate question of status'.''    Senator Wyden further added, ``The present relationship undermines our moral position in the world.''    To say that Puerto Rico should first decide what it wants, as President Obama has proposed, is merely an excuse to evade the legal responsibility of the United States as a colonial power, particularly when the President insists that the territorial relationship already repudiated by the Puerto Rican electorate should be one of the options. Colonialism is the problem, not the solution.    We, therefore, propose the following process to resolve Puerto Rico's status problem. Puerto Rico and the U.S. Congress should engage in a collaborative process of self-determination for Puerto Rico.    In Puerto Rico, various proposals have been advanced to initiate the process. The party I preside, for example, has proposed a status assembly in which each status option, proportionately represented, would formulate a proposal for its desired non-colonial, non-territorial option, requiring a response by the U.S. Government by a date certain. Ultimately, only realistic, non-territorial options negotiated with the U.S. authorities would be submitted to the Puerto Rican electorate.    Unfortunately, the present government of Puerto Rico refuses to move in this direction. However, Congress could jump start a process directed toward the same end. Bipartisan representatives of the congressional leadership, in coordination with the executive branch, could convene representatives of the different status alternatives to present their respective decolonizing status proposals. In response, Congress would then specify which alternatives, and under what conditions it would be willing to consider. The Puerto Rican people could then cast a meaningful vote for the available non-colonial, non-territorial options.    If Congress takes no action, and the colonialist PPD prevails in Puerto Rico's 2016 election, the democratic bankrupt territory of extreme dependency will continue to breed support for statehood. If the pro-statehood party prevails, Congress will then be faced with a statehood petition as a consequence of a statehood yes-or-no vote. That vote would be totally uninformed as to the conditions that Congress would impose, and driven principally by the widespread notion that statehood represents an endless cornucopia of Federal funds. You would then be faced not only with the economic crisis in Puerto Rico, but with a political crisis of unforeseeable consequences to the United States. The rational way to avoid such a scenario would be to start a collaborative process of self-determination.    Time is running out. To conclude, I must urge and demand of the President of the United States the immediate release of political prisoner Oscar Lopez Rivera, who has been in prison for more than 34 years here in the United States. Thank you very much.</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. I know.</t>
   </si>
   <si>
@@ -187,12 +169,6 @@
     <t xml:space="preserve">    Mr. Young. Thank you. Ms. Radewagen, you are up.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman.    I, too, want to welcome the panel of distinguished witnesses, the first panel.    I have a question for Congressman Pierluisi. Some pro-statehood advocates in Puerto Rico argue that Puerto Rico already voted for statehood in 2012, and should not have to vote again. You have pointed out the following: when Alaska and Hawaii were territories, they each held votes sponsored by the local government in which voters expressed a desire for statehood. Ultimately, Congress approved an Admission Act for Alaska in July 1958, and an Admission Act for Hawaii in March 1959. Those Acts of Congress provided for admission to occur once a majority of voters affirmed in a federally-sponsored vote that they desired statehood.    So you are essentially proposing the same procedure for Puerto Rico as was used in Alaska and Hawaii, right?</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, and I thank you for your leadership on addressing these issues that are so very important to the territories.    I welcome our former colleagues, the governors and the mayors and the other leaders from Puerto Rico. It is very nice to have you here with us in this very important hearing. I also commend Mr. Pierluisi, who has worked diligently to advance self-determination efforts, and who champions Puerto Rico's issues here in Congress.    Like our brothers and our sisters in Puerto Rico, the people of Guam aspire to determine our political future, and fully exercise our right to self-determination. I commend Puerto Rico's local leadership for their efforts to determine their political status, and I have urged local leaders on Guam to make similar efforts, so that we can move forward with our self-determination.    But this process is two-fold. Congress holds the institutional obligation to address the political status of Puerto Rico and the other territories under Article 4 of the Constitution. So I urge this committee to give due consideration to the views of the people of Puerto Rico on this issue.    My first question is to you, Mr. Pierluisi. You have argued that Puerto Rico's economic challenges make self-determination even more urgent now. You are an ardent advocate for statehood for Puerto Rico. If statehood vote were selected by the voters, and Congress approves it, how could statehood address Puerto Rico's difficult economic situation, which is the case now?</t>
   </si>
   <si>
@@ -340,9 +313,6 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. We are both----</t>
   </si>
   <si>
@@ -370,9 +340,6 @@
     <t>412519</t>
   </si>
   <si>
-    <t>Raul Ruiz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Ruiz. Thank you so much, Mr. Chairman. Mr. Chairman, our territories are a part of our Nation. Their residents are a part of our Nation. And, in fact, by an Act of Congress, they are American citizens. And yet, too often, our territories are left behind in major Federal legislation. The result of this inequality comes in the form of health disparities, severe income inequality, and in some cases, substandard living conditions.    For example, territory residents who have paid into the Medicare system do not have access to the same benefits they would be due as a state. The statistics on the disparities in Puerto Rico specifically are appalling. According to Puerto Rico's Medical Licensing and Studies Board, the number of physicians in Puerto Rico has dropped by 13 percent in the last 5 years, contributing to the severe primary health professional shortage in 34 medical under-served areas across Puerto Rico.    Compared to the states, Puerto Rico has less than half the per capita rate of emergency medicine physicians, which oftentimes serve as the individual's last safety net resource. And the reimbursement rate for physicians practicing on the island is said to go down even further, exacerbating these disparities. The people of Puerto Rico deserve to have access to the health care services that they have paid for, and deserve the opportunity to lead a healthy, full life. So I would like to ask you a question if we have enough time.    This question is for my colleague, Representative Pierluisi. How does Puerto Rico's territory status specifically harm the health and wellness of Puerto Rico's residents?</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. I have no questions.</t>
   </si>
   <si>
@@ -463,9 +427,6 @@
     <t xml:space="preserve">    Mr. Young. Is everybody situated? You photographers get moving.    Because you are lined up this way, I am going to call on the Honorable Carlos Romero. Carlos, welcome. I can remember when I was in the Minority and you were in the Majority. You fought this battle then, as you are fighting it now. We may have different ideas, but I hope the people of Puerto Rico appreciated your dedication to a cause, and your word--crucially important.    So, you are up, you are first, you know the rules. I am pretty lenient, but you do what you have to do.</t>
   </si>
   <si>
-    <t>Barcelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barcelo. Thank you.</t>
   </si>
   <si>
@@ -481,9 +442,6 @@
     <t xml:space="preserve">    Mr. Young. Yes, right.    Luis, former Governor, former colleague. Welcome aboard.</t>
   </si>
   <si>
-    <t>Fortuno</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fortuno. Thank you, Mr. Chairman. It is a pleasure to see you and so many other friends, and I thank you for your leadership on this issue.    The focus of today's hearing is on point, because the economic outlook of Puerto Rico is directly linked to the historical necessity of a permanent, constitutionally-defined political status. The current economic crisis is a cruel manifestation that territorial status is not a sustainable model for the political economy of America's last large and populous territory.    Real people are enduring harsh suffering because Puerto Rico's development is being suppressed by a century of even more severe constraints on growth than 32 other territories experienced before transitioning to a statehood economy. The dire situation that has developed under the commonwealth regime is demonstrated by graphs that I have provided to this subcommittee.    With the exception of a year and a half between 2011 and 2012, Puerto Rico's economy has been in negative territory during the last 9 years. The situation has turned critical during the last 30 months. We must reverse this accelerating decline and restore fiscal discipline, so that people can go back to work and families can recover optimism and prosperity.    But, Puerto Rico's full potential for economic success and job creation will not be realized until economic uncertainty generated by the island's unresolved political status is replaced by stability and full participation in the U.S. national economy. The 3.5 million U.S. citizens of Puerto Rico get it. That is why a 54 percent majority voted to end the current status in the plebiscite of 2012.    With voter turnout exceeding 78 percent, more than 61 percent of voters chose statehood over separate sovereign nation, with or without a treaty of free association. Results certified by the Puerto Rico Elections Commission confirmed that the total number of votes cast for statehood was greater than the total vote for the current status. That means the current status was defeated on the first ballot question, while statehood won a strong majority on the second ballot question.    There is no legal basis for assigning a meaning to blank ballots on the second question in the 2012 vote, while there is a historical precedent for a federally-sponsored vote to confirm the results of the 2012 plebiscite. That is why Congressman Pierluisi's bill, will empower voters either to confirm or reverse the 2012 vote for statehood.    H.R. 727 is fully consistent with the purpose of the 2014 bipartisan legislation in which Congress allocated $2.5 million for a new status vote. Its objective can be accomplished pursuant to the Pierluisi bill, under which the U.S. Attorney General still must certify the ballot question is legally valid under Federal law.    Yet, instead of open democratic self-determination, the ideological faction clinging to the status quo insists on obstructing the will of the people, as clearly expressed in the 2012 plebiscite. The defenders of the status quo can't even agree on a legally valid non-territorial status themselves.    The status proposals made in the past by the commonwealth party have not been constitutionally valid, and there is no indication that this time it will be any different. Meanwhile, as time passes, a steady and indeed unprecedented stream of U.S. citizens, denied both self-determination and equal economic opportunity in the territory, continue the exodus to acquire equal rights secured under our Constitution only through residence in a state.    But vast relocation within our national borders should not be required for U.S. citizens in a territory to attain equal rights. People know that in America equality includes government by consent, and in the United States that means voting rights in Federal elections secured only for residents of a state under our Constitution.    The real meaning of the 2012 vote is that decades of false doctrine on political status options have ended. A majority of your fellow citizens in Puerto Rico now understand that the most sacred fundamental rights of citizenship can be secured permanently and constitutionally only by citizenship in a state of the Union. This modern-day diaspora is a direct reflection of the inequities of the current territorial status and a direct response to the lack of action by Congress to address this flaw in our democratic way of life.    Every month, thousands of American citizens relocate from the island, leaving their homes and families behind, in search of equal opportunities, equal rights, and economic freedom that can only be attained in one of the 50 states. That is why supporters of statehood are not afraid to put the status we support to the test of an up-or-down vote. The most logical and democratic way for Congress to know where we stand as Americans is to allow us an up-or-down vote to confirm or overturn the 2012 results.    Thank you, and it is great seeing you again, Mr. Chairman.</t>
   </si>
   <si>
@@ -493,25 +451,16 @@
     <t xml:space="preserve">    Mr. Young. Acevedo Vila, former Governor of Puerto Rico, former Commissioner, you are up.</t>
   </si>
   <si>
-    <t>Vila</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vila. Thank you, Mr. Chairman. Thank you for the invitation.    I will start by saying the title of this hearing is quite revealing, since these procedures are not to analyze any pending legislation, and there is no prospect of legislative action in the near future.    On the other hand, the fact that this hearing combines the political relationship between Puerto Rico and the United States and the economic situation in the island is quite revealing, too. As far as I can remember, this is the first time any institution of any of the branches of the Federal Government have implicitly or explicitly recognized the important linkage between these two areas.    I have written and submitted a well thought-out document and a factually accurate testimony about the current economic crisis in Puerto Rico and what it means for our political status. I invite you to read it carefully. But since this committee has allowed me only 5 minutes to talk about such a critical point in time for our people, I am going to use my time today to request something of you, and make a plea for my people and my island. And I am sure that, from it, the subcommittee can draft a proper agenda of business to give adequate attention to our current economic situation.    While Puerto Rico first produced sugar and then soldiers, the United States told the world we were working together. While Puerto Rico provided thousands of our limited acres for military training and an open economy where American businesses flourish and prospered, you told the world we work together. We have gotten to where we are today together. Yes? A lot of the good and the bad were done by our own hands. But a lot of the good and the bad were done by your hands, too. Yes, it doesn't matter how you characterize it. The truth is that we have been in this together.    Now Puerto Rico is in a deep crisis that is threatening essential government services, including safety, education, and health care. Our economy has closed the door to hundreds of thousands of Puerto Ricans that have left their families and homes behind. But, contrary to the good old days, this time the U.S. Government is keeping distance. In this crisis, you say now we are not together.    I have no problem accepting our fault in the current crisis. But to pretend it is 100 percent our fault is incorrect and immoral. The economic crisis was worsened by the elimination by Congress of Section 936 of the Internal Revenue Code, and by fiscal policies and actions and lack of actions by the U.S. Government and of this Congress.    Our budget bubble happened at the same time that yours, under a monetary policy that fostered billions of dollars of unpayable debt. The Federal Reserve recognized its hand in the 2000 mortgage crisis, and set the money printing press to `high' to solve it. But we have been left behind in the call.    Let me tell you, Congressmen and Congresswomen, in this crisis we are together. We worked together getting it, and work together in the consequences. Together, we will suffer the dislocations of uncontrollable migration. Together we will be hit by rising social programs and needs. Together we will face financial litigation by ravenous creditors looking for every penny, and with not even a law to organize the process.    No matter what you may think or want to believe, we are in this together. Actually, there is a Supreme Court case solved in 2007, which I quote in detail in my written testimony and it is included as an annex, that specifically addresses this issue in state--that in a situation where a U.S. territory faces economic insolvency, the U.S. Government is responsible and might be liable.    I have no doubt that we can solve our crisis and can come out of it stronger, if you realize that we are still together and come to the table to work with us. One-sided solutions won't work, whether they come from your side or ours.    I request of you a joint resolution of Congress, asking the Treasury Department and the Federal Reserve to roll up their sleeves and do more than just give advice. They need to get involved and be part of the solution. They have the power and the tools and the responsibility to do it. We are willing to sacrifice, but we need a fighting chance. No country, no state, no jurisdiction has gotten out of a crisis like ours without a bankruptcy law, a central bank intervention, or help from outside.    Call our relation a bilateral compact or a colonized territory. At this time it all means one thing: we are in this together. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Governor.    Carmen, the Mayor of San Juan. Beautiful town, great people. Haven't had the privilege of meeting you yet. Thank you. You are welcome.</t>
   </si>
   <si>
-    <t>Soto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Soto. Thank you very much, Chairman and members of the committee, for the opportunity. Puerto Rico has enjoyed, in the past, a commonwealth status responsible for catapulting our economic development. But the world has changed. That which once made us successful now lacks the necessary tools to handle today's reality. Ultimately, any viable political status must provide the necessary economic tools to engage and sustain an equitable economic growth while strengthening our democracy.    Puerto Rico has been denied these tools far too long, and as long as our options are defined by the powers of this Congress, we will always be at your mercy. The measure of our success will always be limited by the vastness of your control over our affairs.    I admit, as did the Governor, that our current financial situation has a healthy dose of shared responsibility. For years, we engaged in chronic patterns of unhealthy indebtedness, while you denied us or took away the few tools we have at our disposal. Sir Winston Churchill once said, ``Give us the tools to win this war.'' It is profoundly evident that our political status will determine the tools we have at our disposal to wage and win the economic war we are immersed in.    Far too long you have benefited from our inability to reach a consensus in the status question. No more--you can no longer use that as an excuse to neglect your responsibility. Paraphrasing Gandhi--``The time has come for you to recognize that you are masters in somebody else's land.'' The time has come for you to put in motion a true self-determination process which ensures all voices and all options have equal access to the formulation and implementation of the status resolution issue.    I come before you as one of the 454,768 Puerto Ricans who, in November 2012, voted to transform the present commonwealth relationship into a non-territorial, non-colonial, free associated state, to request that Congress include said option in any status-defining process in a manner which is distinguishable from other status options.    Said new status is based on the recognition of the sovereignty of the people of Puerto Rico and our inalienable right to choose whichever form of government we see fit. The ELA Soberano will be forged on a compact of association in accordance with international law. We aspire, as the majority of Puerto Ricans, to guarantee for present and future generations the common bond of U.S. citizenship.    Of course, any serious self-determination process--and I must clarify I am personally in favor of a status assembly--will take time. However, there are matters which may be addressed immediately.    One, we must ensure Resident Commissioner Pedro Pierluisi's bill to include Puerto Rico in Chapter 9 of the U.S. bankruptcy law is swiftly approved, so that we have the legal capability to restructure our obligations and pay them in a manner consistent with the well-being of our people. We recently tried to deal with this issue and the Federal court ruled against us. I fully support this bill.    Two, give us the authority to enter into commercial agreements with other countries, as well as partially or fully exempt us, just as the Virgin Islands next to us, from the yoke placed upon us by the Jones Act.    You have the power to help Puerto Rico. Now you must exercise it. You have the moral obligation to end the trite pilgrimage of Puerto Ricans looking for the status question to be resolved. You must move forward. I assure you, you will be met by an alliance of relentless people who know how--who have in the past and will in the future, once again, overcome adversity. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Young. I thank the good mayor. Now we have Miriam Ramirez, M.D., former Puerto Rican State Senator.</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ramirez. Yes, Mr. Chairman. It has been a privilege to know you and count on your solid and courageous support to advance our struggle to achieve equal rights for the almost 4 million disenfranchised citizens in Puerto Rico.    Decades ago you responded with your full support when more than 350,000 Puerto Ricans petitioned Congress for statehood. Today, you are again giving us an opportunity to obtain our equal rights and obligations as U.S. citizens of this great Nation.    In my testimony here in Washington, on May 22, 1986, Congressman Morris Udall was the Chairman. And I mentioned our full rights as citizens being the fundamental reason for the poor economic performance of Puerto Rico. Today I want to focus my testimony on the negative consequences of the Federal tax regime that has kept Puerto Rico labeled as a foreign jurisdiction for almost a century.    I have been hearing people here talking about the dire life in Puerto Rico, how bad it is. But did you know it is only for a group of people? Because we have a big percentage of people in Puerto Rico who relocate from the United States, and can live in Puerto Rico tax-free from Puerto Rico and for the Federal Government. I hate to get away from my testimony. I will continue reading it, but I am just too passionate about this issue.    In 1996, I have been hearing here about how, after Section 936 was eliminated, the former Section 936 firms used Puerto Rico's foreign tax status and converted to controlled foreign corporations (CFCs)--corporate welfare. However, the CFCs in Puerto Rico are not obligated to create local jobs or to generate any real investment in order to benefit from the Federal tax deferral. Using transfer pricing abuses, the CFCs in the island are causing the U.S. Treasury to lose billions in Federal tax revenue without creating jobs and investment in the island.    The Senate Permanent Subcommittee on Investigations identified one company in Puerto Rico--just one--that has come public that benefits from a tax saving of $22 million a year per employee, and they have about 170 employees. And most of them--I don't have the statistics--are on part-time jobs. The U.S. taxpayer is also maybe paying for some of this money that is coming and creating this dependence in Puerto Rico.    Also, to exploit the special Federal tax code of Section 933, the pro-statehood administration adopted--the former one--two laws in 2012, Act 20 and Act 22, to entice millionaires who reside in the 50 states to relocate to Puerto Rico by taxing their corporate profits from exported services at a flat 4 percent rate, and allowing those profits to be paid out to these owners free of Puerto Rico income tax. Bring them here and ask them how they feel living in Puerto Rico is.    Thus, the CFC regime in Puerto Rico has become a significant drain of tax revenue, and a formidable opponent of statehood for Puerto Rico. Keeping Puerto Rico as a foreign country, as we are coded in the IRS, inside the United States, undermines the U.S. Federal tax base, and creates unfair competition against local communities in the 50 states and in Puerto Rico. But the truth is that Puerto Rico is governed by the CFC regime and the economic power of the super-billionaires who relocate without paying taxes.    But that is not the only damage they do. They have the most powerful public relations army in the world, ready to lobby and fight against anything that endangers this outrageous tax evasion scam. The worst concern for them is that Puerto Rico becomes a state of the Union, so they throw their lobbyists out here. And you will have, enclosed in my written testimony, a letter from one of the lobbyists, precisely after the plebiscite, demeaning the results of them.    This is the reason that I find it impossible to fight against the CFCs if we want to achieve statehood. We have to make the CFCs part of the political status solution. Mr. Chairman, I propose that a statehood bill, with the defining terms of admission, and a 20-year transition period for maintaining the CFCs in Puerto Rico, come out of your committee.    There is a precedent for previous statehood bills to include temporary tax benefits, and a transition period was included in Senate Bill 712 of 1990.    Please do not hold any more plebiscites with the various options, we have been there and done that. We now put the ball in your side of the court. Define the admission terms and ask our people.    And, Mr. Sablan, we are paying for Mr. Cesar Miranda's testimony, even though he is reporting for the Governor. He is reporting for one of the status options, so we are basically paying for that.</t>
@@ -1177,11 +1126,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1203,11 +1150,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1229,11 +1174,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1255,11 +1198,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1281,11 +1222,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1307,11 +1246,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1331,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1357,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1385,11 +1318,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1409,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1437,11 +1366,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1461,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1489,11 +1414,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1513,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1541,11 +1462,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1565,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1593,11 +1510,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1617,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1645,11 +1558,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1669,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1697,11 +1606,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1721,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1749,11 +1654,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1773,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1799,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1825,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1851,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1877,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1903,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1929,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1955,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1981,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2007,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2033,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2061,11 +1942,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2085,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2111,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2139,11 +2014,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2163,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2189,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2217,11 +2086,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2241,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2267,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2293,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2321,11 +2182,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2345,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2371,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2397,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2425,11 +2278,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2449,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2475,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2501,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2527,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2553,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2579,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2605,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2631,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2657,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2683,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2709,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2735,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2761,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2787,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2813,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2839,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2865,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2891,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2917,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2943,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2969,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2995,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3021,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3047,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3073,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3099,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3125,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3151,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3177,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3203,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3229,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3257,11 +3046,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3281,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3309,11 +3094,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3333,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3361,11 +3142,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3385,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3413,11 +3190,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3437,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3465,11 +3238,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3489,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3515,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3541,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3567,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3593,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3621,11 +3382,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3645,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3673,11 +3430,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3697,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3725,11 +3478,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3749,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3777,11 +3526,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3801,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3829,11 +3574,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3853,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3881,11 +3622,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3905,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3933,11 +3670,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3957,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3985,11 +3718,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4009,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4037,11 +3766,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4061,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4089,11 +3814,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4113,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4141,11 +3862,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4165,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4193,11 +3910,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4217,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
-      </c>
-      <c r="G119" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4245,11 +3958,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4271,11 +3982,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4295,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4323,11 +4030,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4347,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4375,11 +4078,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4399,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4427,11 +4126,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4451,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>155</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4479,11 +4174,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4505,11 +4198,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4529,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4557,11 +4246,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4581,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>162</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4609,11 +4294,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4633,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4661,11 +4342,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4685,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4713,11 +4390,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4737,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>65</v>
-      </c>
-      <c r="G139" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4763,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4789,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>65</v>
-      </c>
-      <c r="G141" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4815,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4841,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>65</v>
-      </c>
-      <c r="G143" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4867,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>65</v>
-      </c>
-      <c r="G144" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4893,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
         <v>159</v>
-      </c>
-      <c r="H145" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4919,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>65</v>
-      </c>
-      <c r="G146" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4945,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4973,11 +4630,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4997,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5025,11 +4678,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5049,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5077,11 +4726,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5101,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>57</v>
-      </c>
-      <c r="G153" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5127,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>155</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5153,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>57</v>
-      </c>
-      <c r="G155" t="s">
-        <v>58</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5181,11 +4822,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5205,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5231,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5257,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5283,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5309,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5335,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5361,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5387,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5415,11 +5038,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5439,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>125</v>
-      </c>
-      <c r="G166" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5465,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>155</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5493,11 +5110,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5517,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" t="s">
-        <v>155</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5543,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5569,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>125</v>
-      </c>
-      <c r="G171" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5595,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5621,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>125</v>
-      </c>
-      <c r="G173" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5647,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5673,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5699,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>125</v>
-      </c>
-      <c r="G176" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5725,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
-      </c>
-      <c r="G177" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5751,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>125</v>
-      </c>
-      <c r="G178" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5779,11 +5374,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5803,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>125</v>
-      </c>
-      <c r="G180" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5831,11 +5422,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5855,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5881,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5907,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5933,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5959,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5987,11 +5566,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6011,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G188" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6037,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6063,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6089,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6115,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6141,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6167,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6193,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6219,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
-      </c>
-      <c r="G196" t="s">
-        <v>159</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6247,11 +5806,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6271,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
-      </c>
-      <c r="G198" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6299,11 +5854,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6323,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
-      </c>
-      <c r="G200" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6351,11 +5902,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6375,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
-      </c>
-      <c r="G202" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6403,11 +5950,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6427,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
-      </c>
-      <c r="G204" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6455,11 +5998,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6479,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
-      </c>
-      <c r="G206" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6507,11 +6046,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6531,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6559,11 +6094,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6583,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>28</v>
-      </c>
-      <c r="G210" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6611,11 +6142,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6635,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6663,11 +6190,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6687,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6715,11 +6238,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6739,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6767,11 +6286,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6791,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6819,11 +6334,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6845,11 +6358,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6869,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>65</v>
-      </c>
-      <c r="G221" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6897,11 +6406,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6921,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>65</v>
-      </c>
-      <c r="G223" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6949,11 +6454,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400440</t>
   </si>
   <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Young. The committee will come to order. I do apologize for the delay. Strange as the Congress may be, we have burning questions and we had to talk about the baseball game. They already knew who won and who lost, but then it was beside the point.    Anyway, the Subcommittee on Indian, Insular, and Alaska Native Affairs will come to order. The subcommittee is meeting today to hear testimony on the following oversight topic: ``Examining Procedures Regarding Puerto Rico's Political Status and Economic Outlook.''    Under Rule 4(f), any oral statements on the hearing are limited to the Chairman and the Ranking Minority Member, and this allows us to hear from the witnesses. We do have two panels here today. Therefore, I ask unanimous consent that all Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee clerk by 5:00 p.m. today, or at the close of the hearing, whichever comes first.    [No response.]</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>412312</t>
   </si>
   <si>
+    <t>Sablan</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman. And buenos tardes, everyone. I apologize that it took me, from the Northern Marianas, a little over 500 years before we--I got to see my fellow people from Puerto Rico. At one time we all owed allegiance to a queen. It has been a long time after that allegiance to the queen that you became a part of the United States.    I want to begin by welcoming the witnesses to the hearing, particularly those who traveled from the Island of Puerto Rico to be with us today. I also want to recognize my good friend and colleague, Ms. Gutierrez from Illinois. And I think I saw Ms. Nydia Velazquez here earlier.    I want to especially welcome the leaders of Puerto Rico's three major political parties, as well as our former Natural Resources Committee colleagues, Congressmen and former governors, Luis Fortuno, Anibal Acevedo Vila, and Carlos Romero Barcelo.    Today's hearing will examine the link between the current economic conditions on Puerto Rico and the unresolved issue of the island's political status. I believe such an examination is fitting, given the severe fiscal difficulties the island is facing.    Currently, the government of Puerto Rico is $73 billion in debt, and there are real concerns that the central government, or one of its instrumentalities, may soon default on its bond payment.    I am from the Northern Mariana Islands, which is a commonwealth that has a permanent relationship with the United States. When Puerto Rico becomes a state, we are next in line, because we start first with the commonwealths, and then we do the others. That is a joke, OK? It is a joke. We have to lighten up the room.    [Laughter.]</t>
   </si>
   <si>
@@ -85,6 +100,12 @@
     <t>412306</t>
   </si>
   <si>
+    <t>Pierluisi</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pierluisi. Thank you, Chairman Young, Mr. Ranking Member, and members of the subcommittee. The facts are as follows.    Puerto Rico is a territory. If it does not wish to remain a territory, it can become a state or a sovereign nation, either fully independent or with the compact of free association with the United States. However, if Puerto Rico becomes a sovereign nation, future generations of island residents would not be American citizens.    My constituents have made countless contributions to this Nation in times of peace and war, serving in every military conflict since World War I. Many have made the ultimate sacrifice. When they do, their casket is flown back to this country, draped in the American flag. It takes real patriotism to fight for a nation you love, but one that does not treat you equally.    Puerto Rico has more U.S. citizens than 21 states, but my constituents cannot vote for President, have no Senators, and have a non-voting delegate in the House. Moreover, the Constitution gives Congress license to treat territories worse than states, and Congress often uses that license.    Territory status is the root cause of the crisis in Puerto Rico, because Puerto Rico is treated unequally under Federal programs. It is deprived of critical economic support. To compensate, the Puerto Rico government has borrowed heavily, which helps explain why the government and its instrumentalities have $72 billion in debt. In recent years, 250,000 island residents have relocated to the states, and these numbers are only growing. Once in the states they are entitled to full voting rights, and equal treatment under the law, rights they lack in Puerto Rico.    Let me mention two of the many ways that Puerto Rico's status hurts the quality of life of my constituents. First, Puerto Rico is treated unequally under Medicaid and Medicare. The impact on our healthcare system and on our fiscal health has been severe. Second, Congress has authorized each state government to permit its insolvent municipalities to adjust their debts under Chapter 9 of the Bankruptcy Code, but has not authorized Puerto Rico to do so. Thus, territory status is a significant reason why Puerto Rico has excessive debt, and the sole reason why it lacks a critical tool to manage that debt.    I have introduced bills to give Puerto Rico equal treatment under Federal health programs and Chapter 9. While I appreciate that the governor of Puerto Rico has endorsed these efforts, it is ironic that an anti-statehood administration is seeking state-like treatment for the territory in key policy areas. I seek equal treatment for Puerto Rico in all respects.    If you give us the same rights and responsibilities as our fellow American citizens, and let us rise or fall on our merits, we will rise. But if you continue to treat us like second-class citizens, don't profess to be surprised when we fall.    This is now the predominant view in Puerto Rico. In a 2012 referendum, a majority of voters rejected territory status, and more voters expressed a desire for statehood than any other option. At my initiative, Congress approved funding for a federally-sponsored referendum. Once I have the opportunity, I will use this funding to hold a vote on whether Puerto Rico should be admitted as a state, just like Alaska and Hawaii did. This is logical. Statehood won the 2012 referendum. So we should now vote on statehood, itself.    This is also fair. Those who support statehood can vote yes, and those who oppose it can vote no. This approach has brought support in Congress. I have introduced a bill to authorize a vote in Puerto Rico on whether the territory should be admitted to the Union. If a majority of voters say yes, Puerto Rico would become a state within 5 years. The bill has 109 co-sponsors from 39 states and territories, and more bipartisan backing than 99 percent of bills filed this year. Each co-sponsor refutes the single argument that the United States would not accept Puerto Rico as a state.    Puerto Rico's status is intolerable, and my constituents will no longer tolerate it. We want equality under the American flag, and we will settle for nothing less. Thank you.</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rodriguez. Thank you, Chairman Young.</t>
   </si>
   <si>
@@ -106,6 +130,9 @@
     <t xml:space="preserve">    Mr. Young. Thank you, sir. Ruben Berrios, former Senator, Puerto Rican Senate Independence Party, you are up.</t>
   </si>
   <si>
+    <t>Berrios</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Berrios. Mr. Chairman and members of the subcommittee, the virtual bankruptcy of Puerto Rico's economy is a self-evident reality. Puerto Rican voters have repudiated the territorial status that is the root cause of our economic and social problems. The territorial status was never democratic and has now become tyrannical.    Internationally, the community of Latin American and Caribbean states has recently reaffirmed its support for the right of Puerto Rico to its self-determination and independence. And yet Congress refuses to comply with its decolonizing obligation toward Puerto Rico.    This subcommittee is well aware of Puerto Rico's status problem. For decades it has held hearings on the issue, and many in Puerto Rico can reasonably wonder whether this oversight hearing pursues a legitimate legislative purpose, or is merely a pro forma, partisan, quid pro quo. Only time will tell.    I shall utilize this hearing to publicly propose a route map toward the solution of Puerto Rico's status problem. The relationship between Puerto Rico's territorial status and our economic and social problems has been well summarized by Senator Ron Wyden, Chairman of the Committee on Energy and Natural Resources. I quote, ``Puerto Rico faces huge economic and social challenges. . . . The lack of resolution of Puerto Rico's status not only distracts from addressing these and other issues, it contributes to them. As the most recent reports from the President's Task Force on Puerto Rico's status found--and I quote--`identifying the most effective means of assisting the Puerto Rican economy depends on resolving the ultimate question of status'.''    Senator Wyden further added, ``The present relationship undermines our moral position in the world.''    To say that Puerto Rico should first decide what it wants, as President Obama has proposed, is merely an excuse to evade the legal responsibility of the United States as a colonial power, particularly when the President insists that the territorial relationship already repudiated by the Puerto Rican electorate should be one of the options. Colonialism is the problem, not the solution.    We, therefore, propose the following process to resolve Puerto Rico's status problem. Puerto Rico and the U.S. Congress should engage in a collaborative process of self-determination for Puerto Rico.    In Puerto Rico, various proposals have been advanced to initiate the process. The party I preside, for example, has proposed a status assembly in which each status option, proportionately represented, would formulate a proposal for its desired non-colonial, non-territorial option, requiring a response by the U.S. Government by a date certain. Ultimately, only realistic, non-territorial options negotiated with the U.S. authorities would be submitted to the Puerto Rican electorate.    Unfortunately, the present government of Puerto Rico refuses to move in this direction. However, Congress could jump start a process directed toward the same end. Bipartisan representatives of the congressional leadership, in coordination with the executive branch, could convene representatives of the different status alternatives to present their respective decolonizing status proposals. In response, Congress would then specify which alternatives, and under what conditions it would be willing to consider. The Puerto Rican people could then cast a meaningful vote for the available non-colonial, non-territorial options.    If Congress takes no action, and the colonialist PPD prevails in Puerto Rico's 2016 election, the democratic bankrupt territory of extreme dependency will continue to breed support for statehood. If the pro-statehood party prevails, Congress will then be faced with a statehood petition as a consequence of a statehood yes-or-no vote. That vote would be totally uninformed as to the conditions that Congress would impose, and driven principally by the widespread notion that statehood represents an endless cornucopia of Federal funds. You would then be faced not only with the economic crisis in Puerto Rico, but with a political crisis of unforeseeable consequences to the United States. The rational way to avoid such a scenario would be to start a collaborative process of self-determination.    Time is running out. To conclude, I must urge and demand of the President of the United States the immediate release of political prisoner Oscar Lopez Rivera, who has been in prison for more than 34 years here in the United States. Thank you very much.</t>
   </si>
   <si>
@@ -127,6 +154,12 @@
     <t>412617</t>
   </si>
   <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Torres. I know.</t>
   </si>
   <si>
@@ -169,6 +202,9 @@
     <t xml:space="preserve">    Mr. Young. Thank you. Ms. Radewagen, you are up.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman.    I, too, want to welcome the panel of distinguished witnesses, the first panel.    I have a question for Congressman Pierluisi. Some pro-statehood advocates in Puerto Rico argue that Puerto Rico already voted for statehood in 2012, and should not have to vote again. You have pointed out the following: when Alaska and Hawaii were territories, they each held votes sponsored by the local government in which voters expressed a desire for statehood. Ultimately, Congress approved an Admission Act for Alaska in July 1958, and an Admission Act for Hawaii in March 1959. Those Acts of Congress provided for admission to occur once a majority of voters affirmed in a federally-sponsored vote that they desired statehood.    So you are essentially proposing the same procedure for Puerto Rico as was used in Alaska and Hawaii, right?</t>
   </si>
   <si>
@@ -190,6 +226,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, and I thank you for your leadership on addressing these issues that are so very important to the territories.    I welcome our former colleagues, the governors and the mayors and the other leaders from Puerto Rico. It is very nice to have you here with us in this very important hearing. I also commend Mr. Pierluisi, who has worked diligently to advance self-determination efforts, and who champions Puerto Rico's issues here in Congress.    Like our brothers and our sisters in Puerto Rico, the people of Guam aspire to determine our political future, and fully exercise our right to self-determination. I commend Puerto Rico's local leadership for their efforts to determine their political status, and I have urged local leaders on Guam to make similar efforts, so that we can move forward with our self-determination.    But this process is two-fold. Congress holds the institutional obligation to address the political status of Puerto Rico and the other territories under Article 4 of the Constitution. So I urge this committee to give due consideration to the views of the people of Puerto Rico on this issue.    My first question is to you, Mr. Pierluisi. You have argued that Puerto Rico's economic challenges make self-determination even more urgent now. You are an ardent advocate for statehood for Puerto Rico. If statehood vote were selected by the voters, and Congress approves it, how could statehood address Puerto Rico's difficult economic situation, which is the case now?</t>
   </si>
   <si>
@@ -313,6 +355,12 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Grijalva</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grijalva. We are both----</t>
   </si>
   <si>
@@ -340,6 +388,12 @@
     <t>412519</t>
   </si>
   <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Ruiz. Thank you so much, Mr. Chairman. Mr. Chairman, our territories are a part of our Nation. Their residents are a part of our Nation. And, in fact, by an Act of Congress, they are American citizens. And yet, too often, our territories are left behind in major Federal legislation. The result of this inequality comes in the form of health disparities, severe income inequality, and in some cases, substandard living conditions.    For example, territory residents who have paid into the Medicare system do not have access to the same benefits they would be due as a state. The statistics on the disparities in Puerto Rico specifically are appalling. According to Puerto Rico's Medical Licensing and Studies Board, the number of physicians in Puerto Rico has dropped by 13 percent in the last 5 years, contributing to the severe primary health professional shortage in 34 medical under-served areas across Puerto Rico.    Compared to the states, Puerto Rico has less than half the per capita rate of emergency medicine physicians, which oftentimes serve as the individual's last safety net resource. And the reimbursement rate for physicians practicing on the island is said to go down even further, exacerbating these disparities. The people of Puerto Rico deserve to have access to the health care services that they have paid for, and deserve the opportunity to lead a healthy, full life. So I would like to ask you a question if we have enough time.    This question is for my colleague, Representative Pierluisi. How does Puerto Rico's territory status specifically harm the health and wellness of Puerto Rico's residents?</t>
   </si>
   <si>
@@ -361,6 +415,12 @@
     <t>412510</t>
   </si>
   <si>
+    <t>LaMalfa</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaMalfa. I have no questions.</t>
   </si>
   <si>
@@ -427,6 +487,9 @@
     <t xml:space="preserve">    Mr. Young. Is everybody situated? You photographers get moving.    Because you are lined up this way, I am going to call on the Honorable Carlos Romero. Carlos, welcome. I can remember when I was in the Minority and you were in the Majority. You fought this battle then, as you are fighting it now. We may have different ideas, but I hope the people of Puerto Rico appreciated your dedication to a cause, and your word--crucially important.    So, you are up, you are first, you know the rules. I am pretty lenient, but you do what you have to do.</t>
   </si>
   <si>
+    <t>Barcelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barcelo. Thank you.</t>
   </si>
   <si>
@@ -442,6 +505,9 @@
     <t xml:space="preserve">    Mr. Young. Yes, right.    Luis, former Governor, former colleague. Welcome aboard.</t>
   </si>
   <si>
+    <t>Fortuno</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fortuno. Thank you, Mr. Chairman. It is a pleasure to see you and so many other friends, and I thank you for your leadership on this issue.    The focus of today's hearing is on point, because the economic outlook of Puerto Rico is directly linked to the historical necessity of a permanent, constitutionally-defined political status. The current economic crisis is a cruel manifestation that territorial status is not a sustainable model for the political economy of America's last large and populous territory.    Real people are enduring harsh suffering because Puerto Rico's development is being suppressed by a century of even more severe constraints on growth than 32 other territories experienced before transitioning to a statehood economy. The dire situation that has developed under the commonwealth regime is demonstrated by graphs that I have provided to this subcommittee.    With the exception of a year and a half between 2011 and 2012, Puerto Rico's economy has been in negative territory during the last 9 years. The situation has turned critical during the last 30 months. We must reverse this accelerating decline and restore fiscal discipline, so that people can go back to work and families can recover optimism and prosperity.    But, Puerto Rico's full potential for economic success and job creation will not be realized until economic uncertainty generated by the island's unresolved political status is replaced by stability and full participation in the U.S. national economy. The 3.5 million U.S. citizens of Puerto Rico get it. That is why a 54 percent majority voted to end the current status in the plebiscite of 2012.    With voter turnout exceeding 78 percent, more than 61 percent of voters chose statehood over separate sovereign nation, with or without a treaty of free association. Results certified by the Puerto Rico Elections Commission confirmed that the total number of votes cast for statehood was greater than the total vote for the current status. That means the current status was defeated on the first ballot question, while statehood won a strong majority on the second ballot question.    There is no legal basis for assigning a meaning to blank ballots on the second question in the 2012 vote, while there is a historical precedent for a federally-sponsored vote to confirm the results of the 2012 plebiscite. That is why Congressman Pierluisi's bill, will empower voters either to confirm or reverse the 2012 vote for statehood.    H.R. 727 is fully consistent with the purpose of the 2014 bipartisan legislation in which Congress allocated $2.5 million for a new status vote. Its objective can be accomplished pursuant to the Pierluisi bill, under which the U.S. Attorney General still must certify the ballot question is legally valid under Federal law.    Yet, instead of open democratic self-determination, the ideological faction clinging to the status quo insists on obstructing the will of the people, as clearly expressed in the 2012 plebiscite. The defenders of the status quo can't even agree on a legally valid non-territorial status themselves.    The status proposals made in the past by the commonwealth party have not been constitutionally valid, and there is no indication that this time it will be any different. Meanwhile, as time passes, a steady and indeed unprecedented stream of U.S. citizens, denied both self-determination and equal economic opportunity in the territory, continue the exodus to acquire equal rights secured under our Constitution only through residence in a state.    But vast relocation within our national borders should not be required for U.S. citizens in a territory to attain equal rights. People know that in America equality includes government by consent, and in the United States that means voting rights in Federal elections secured only for residents of a state under our Constitution.    The real meaning of the 2012 vote is that decades of false doctrine on political status options have ended. A majority of your fellow citizens in Puerto Rico now understand that the most sacred fundamental rights of citizenship can be secured permanently and constitutionally only by citizenship in a state of the Union. This modern-day diaspora is a direct reflection of the inequities of the current territorial status and a direct response to the lack of action by Congress to address this flaw in our democratic way of life.    Every month, thousands of American citizens relocate from the island, leaving their homes and families behind, in search of equal opportunities, equal rights, and economic freedom that can only be attained in one of the 50 states. That is why supporters of statehood are not afraid to put the status we support to the test of an up-or-down vote. The most logical and democratic way for Congress to know where we stand as Americans is to allow us an up-or-down vote to confirm or overturn the 2012 results.    Thank you, and it is great seeing you again, Mr. Chairman.</t>
   </si>
   <si>
@@ -451,16 +517,25 @@
     <t xml:space="preserve">    Mr. Young. Acevedo Vila, former Governor of Puerto Rico, former Commissioner, you are up.</t>
   </si>
   <si>
+    <t>Vila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vila. Thank you, Mr. Chairman. Thank you for the invitation.    I will start by saying the title of this hearing is quite revealing, since these procedures are not to analyze any pending legislation, and there is no prospect of legislative action in the near future.    On the other hand, the fact that this hearing combines the political relationship between Puerto Rico and the United States and the economic situation in the island is quite revealing, too. As far as I can remember, this is the first time any institution of any of the branches of the Federal Government have implicitly or explicitly recognized the important linkage between these two areas.    I have written and submitted a well thought-out document and a factually accurate testimony about the current economic crisis in Puerto Rico and what it means for our political status. I invite you to read it carefully. But since this committee has allowed me only 5 minutes to talk about such a critical point in time for our people, I am going to use my time today to request something of you, and make a plea for my people and my island. And I am sure that, from it, the subcommittee can draft a proper agenda of business to give adequate attention to our current economic situation.    While Puerto Rico first produced sugar and then soldiers, the United States told the world we were working together. While Puerto Rico provided thousands of our limited acres for military training and an open economy where American businesses flourish and prospered, you told the world we work together. We have gotten to where we are today together. Yes? A lot of the good and the bad were done by our own hands. But a lot of the good and the bad were done by your hands, too. Yes, it doesn't matter how you characterize it. The truth is that we have been in this together.    Now Puerto Rico is in a deep crisis that is threatening essential government services, including safety, education, and health care. Our economy has closed the door to hundreds of thousands of Puerto Ricans that have left their families and homes behind. But, contrary to the good old days, this time the U.S. Government is keeping distance. In this crisis, you say now we are not together.    I have no problem accepting our fault in the current crisis. But to pretend it is 100 percent our fault is incorrect and immoral. The economic crisis was worsened by the elimination by Congress of Section 936 of the Internal Revenue Code, and by fiscal policies and actions and lack of actions by the U.S. Government and of this Congress.    Our budget bubble happened at the same time that yours, under a monetary policy that fostered billions of dollars of unpayable debt. The Federal Reserve recognized its hand in the 2000 mortgage crisis, and set the money printing press to `high' to solve it. But we have been left behind in the call.    Let me tell you, Congressmen and Congresswomen, in this crisis we are together. We worked together getting it, and work together in the consequences. Together, we will suffer the dislocations of uncontrollable migration. Together we will be hit by rising social programs and needs. Together we will face financial litigation by ravenous creditors looking for every penny, and with not even a law to organize the process.    No matter what you may think or want to believe, we are in this together. Actually, there is a Supreme Court case solved in 2007, which I quote in detail in my written testimony and it is included as an annex, that specifically addresses this issue in state--that in a situation where a U.S. territory faces economic insolvency, the U.S. Government is responsible and might be liable.    I have no doubt that we can solve our crisis and can come out of it stronger, if you realize that we are still together and come to the table to work with us. One-sided solutions won't work, whether they come from your side or ours.    I request of you a joint resolution of Congress, asking the Treasury Department and the Federal Reserve to roll up their sleeves and do more than just give advice. They need to get involved and be part of the solution. They have the power and the tools and the responsibility to do it. We are willing to sacrifice, but we need a fighting chance. No country, no state, no jurisdiction has gotten out of a crisis like ours without a bankruptcy law, a central bank intervention, or help from outside.    Call our relation a bilateral compact or a colonized territory. At this time it all means one thing: we are in this together. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Governor.    Carmen, the Mayor of San Juan. Beautiful town, great people. Haven't had the privilege of meeting you yet. Thank you. You are welcome.</t>
   </si>
   <si>
+    <t>Soto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Soto. Thank you very much, Chairman and members of the committee, for the opportunity. Puerto Rico has enjoyed, in the past, a commonwealth status responsible for catapulting our economic development. But the world has changed. That which once made us successful now lacks the necessary tools to handle today's reality. Ultimately, any viable political status must provide the necessary economic tools to engage and sustain an equitable economic growth while strengthening our democracy.    Puerto Rico has been denied these tools far too long, and as long as our options are defined by the powers of this Congress, we will always be at your mercy. The measure of our success will always be limited by the vastness of your control over our affairs.    I admit, as did the Governor, that our current financial situation has a healthy dose of shared responsibility. For years, we engaged in chronic patterns of unhealthy indebtedness, while you denied us or took away the few tools we have at our disposal. Sir Winston Churchill once said, ``Give us the tools to win this war.'' It is profoundly evident that our political status will determine the tools we have at our disposal to wage and win the economic war we are immersed in.    Far too long you have benefited from our inability to reach a consensus in the status question. No more--you can no longer use that as an excuse to neglect your responsibility. Paraphrasing Gandhi--``The time has come for you to recognize that you are masters in somebody else's land.'' The time has come for you to put in motion a true self-determination process which ensures all voices and all options have equal access to the formulation and implementation of the status resolution issue.    I come before you as one of the 454,768 Puerto Ricans who, in November 2012, voted to transform the present commonwealth relationship into a non-territorial, non-colonial, free associated state, to request that Congress include said option in any status-defining process in a manner which is distinguishable from other status options.    Said new status is based on the recognition of the sovereignty of the people of Puerto Rico and our inalienable right to choose whichever form of government we see fit. The ELA Soberano will be forged on a compact of association in accordance with international law. We aspire, as the majority of Puerto Ricans, to guarantee for present and future generations the common bond of U.S. citizenship.    Of course, any serious self-determination process--and I must clarify I am personally in favor of a status assembly--will take time. However, there are matters which may be addressed immediately.    One, we must ensure Resident Commissioner Pedro Pierluisi's bill to include Puerto Rico in Chapter 9 of the U.S. bankruptcy law is swiftly approved, so that we have the legal capability to restructure our obligations and pay them in a manner consistent with the well-being of our people. We recently tried to deal with this issue and the Federal court ruled against us. I fully support this bill.    Two, give us the authority to enter into commercial agreements with other countries, as well as partially or fully exempt us, just as the Virgin Islands next to us, from the yoke placed upon us by the Jones Act.    You have the power to help Puerto Rico. Now you must exercise it. You have the moral obligation to end the trite pilgrimage of Puerto Ricans looking for the status question to be resolved. You must move forward. I assure you, you will be met by an alliance of relentless people who know how--who have in the past and will in the future, once again, overcome adversity. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Young. I thank the good mayor. Now we have Miriam Ramirez, M.D., former Puerto Rican State Senator.</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ramirez. Yes, Mr. Chairman. It has been a privilege to know you and count on your solid and courageous support to advance our struggle to achieve equal rights for the almost 4 million disenfranchised citizens in Puerto Rico.    Decades ago you responded with your full support when more than 350,000 Puerto Ricans petitioned Congress for statehood. Today, you are again giving us an opportunity to obtain our equal rights and obligations as U.S. citizens of this great Nation.    In my testimony here in Washington, on May 22, 1986, Congressman Morris Udall was the Chairman. And I mentioned our full rights as citizens being the fundamental reason for the poor economic performance of Puerto Rico. Today I want to focus my testimony on the negative consequences of the Federal tax regime that has kept Puerto Rico labeled as a foreign jurisdiction for almost a century.    I have been hearing people here talking about the dire life in Puerto Rico, how bad it is. But did you know it is only for a group of people? Because we have a big percentage of people in Puerto Rico who relocate from the United States, and can live in Puerto Rico tax-free from Puerto Rico and for the Federal Government. I hate to get away from my testimony. I will continue reading it, but I am just too passionate about this issue.    In 1996, I have been hearing here about how, after Section 936 was eliminated, the former Section 936 firms used Puerto Rico's foreign tax status and converted to controlled foreign corporations (CFCs)--corporate welfare. However, the CFCs in Puerto Rico are not obligated to create local jobs or to generate any real investment in order to benefit from the Federal tax deferral. Using transfer pricing abuses, the CFCs in the island are causing the U.S. Treasury to lose billions in Federal tax revenue without creating jobs and investment in the island.    The Senate Permanent Subcommittee on Investigations identified one company in Puerto Rico--just one--that has come public that benefits from a tax saving of $22 million a year per employee, and they have about 170 employees. And most of them--I don't have the statistics--are on part-time jobs. The U.S. taxpayer is also maybe paying for some of this money that is coming and creating this dependence in Puerto Rico.    Also, to exploit the special Federal tax code of Section 933, the pro-statehood administration adopted--the former one--two laws in 2012, Act 20 and Act 22, to entice millionaires who reside in the 50 states to relocate to Puerto Rico by taxing their corporate profits from exported services at a flat 4 percent rate, and allowing those profits to be paid out to these owners free of Puerto Rico income tax. Bring them here and ask them how they feel living in Puerto Rico is.    Thus, the CFC regime in Puerto Rico has become a significant drain of tax revenue, and a formidable opponent of statehood for Puerto Rico. Keeping Puerto Rico as a foreign country, as we are coded in the IRS, inside the United States, undermines the U.S. Federal tax base, and creates unfair competition against local communities in the 50 states and in Puerto Rico. But the truth is that Puerto Rico is governed by the CFC regime and the economic power of the super-billionaires who relocate without paying taxes.    But that is not the only damage they do. They have the most powerful public relations army in the world, ready to lobby and fight against anything that endangers this outrageous tax evasion scam. The worst concern for them is that Puerto Rico becomes a state of the Union, so they throw their lobbyists out here. And you will have, enclosed in my written testimony, a letter from one of the lobbyists, precisely after the plebiscite, demeaning the results of them.    This is the reason that I find it impossible to fight against the CFCs if we want to achieve statehood. We have to make the CFCs part of the political status solution. Mr. Chairman, I propose that a statehood bill, with the defining terms of admission, and a 20-year transition period for maintaining the CFCs in Puerto Rico, come out of your committee.    There is a precedent for previous statehood bills to include temporary tax benefits, and a transition period was included in Senate Bill 712 of 1990.    Please do not hold any more plebiscites with the various options, we have been there and done that. We now put the ball in your side of the court. Define the admission terms and ask our people.    And, Mr. Sablan, we are paying for Mr. Cesar Miranda's testimony, even though he is reporting for the Governor. He is reporting for one of the status options, so we are basically paying for that.</t>
@@ -1076,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1159,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5357 +1181,6347 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
       <c r="H33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G91" t="s">
+        <v>124</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G93" t="s">
+        <v>124</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G95" t="s">
+        <v>124</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G97" t="s">
+        <v>133</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
       <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
       <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
       <c r="H111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>157</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>157</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>157</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>163</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G131" t="s">
+        <v>167</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>170</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
+        <v>173</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>57</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s">
+        <v>157</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G142" t="s">
+        <v>157</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>57</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>57</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G146" t="s">
+        <v>70</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
+        <v>157</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>25</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
+        <v>157</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G151" t="s">
+        <v>157</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>163</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G155" t="s">
+        <v>62</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>167</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>167</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>28</v>
+      </c>
       <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>167</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>28</v>
+      </c>
       <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s">
+        <v>167</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>114</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G166" t="s">
+        <v>133</v>
+      </c>
       <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
+        <v>163</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G169" t="s">
+        <v>163</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>114</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G171" t="s">
+        <v>133</v>
+      </c>
       <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>25</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G172" t="s">
+        <v>167</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>114</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G173" t="s">
+        <v>133</v>
+      </c>
       <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I173" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G174" t="s">
+        <v>167</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>25</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
+        <v>157</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>114</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G176" t="s">
+        <v>133</v>
+      </c>
       <c r="H176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I176" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G177" t="s">
+        <v>157</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>114</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G178" t="s">
+        <v>133</v>
+      </c>
       <c r="H178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>114</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G180" t="s">
+        <v>133</v>
+      </c>
       <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I180" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>22</v>
+      </c>
       <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I182" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>22</v>
+      </c>
       <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I183" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G184" t="s">
+        <v>28</v>
+      </c>
       <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I184" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>22</v>
+      </c>
       <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I185" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G186" t="s">
+        <v>28</v>
+      </c>
       <c r="H186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
       <c r="H188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I188" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>22</v>
+      </c>
       <c r="H189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G190" t="s">
+        <v>28</v>
+      </c>
       <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>22</v>
+      </c>
       <c r="H191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>22</v>
+      </c>
       <c r="H192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I192" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G193" t="s">
+        <v>28</v>
+      </c>
       <c r="H193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I193" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>22</v>
+      </c>
       <c r="H194" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>22</v>
+      </c>
       <c r="H195" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I195" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G196" t="s">
+        <v>167</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G198" t="s">
+        <v>157</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G200" t="s">
+        <v>157</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>25</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>157</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G204" t="s">
+        <v>157</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G206" t="s">
+        <v>173</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G208" t="s">
+        <v>173</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
       <c r="H209" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>25</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>173</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>28</v>
+      </c>
       <c r="H212" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I212" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>28</v>
+      </c>
       <c r="H214" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>28</v>
+      </c>
       <c r="H216" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I216" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G218" t="s">
+        <v>28</v>
+      </c>
       <c r="H218" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I218" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
       <c r="H219" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
       <c r="H220" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>57</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G221" t="s">
+        <v>70</v>
+      </c>
       <c r="H221" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I221" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
       <c r="H222" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>57</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G223" t="s">
+        <v>70</v>
+      </c>
       <c r="H223" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I223" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
       <c r="H224" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95300.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400440</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Young</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>412312</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Sablan</t>
   </si>
   <si>
@@ -355,6 +364,9 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Grijalva</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
   </si>
   <si>
     <t>412519</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Ruiz</t>
@@ -1151,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1174,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,6344 +1199,6888 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I95" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" t="s">
-        <v>38</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>157</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>162</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>157</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>162</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>157</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>162</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>163</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>168</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G131" t="s">
-        <v>167</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>172</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
-      </c>
-      <c r="G133" t="s">
-        <v>170</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>175</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" t="s">
-        <v>173</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>178</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G139" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H139" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>157</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>162</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G141" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I141" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" t="s">
-        <v>157</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>162</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G143" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I143" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G144" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I144" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" t="s">
-        <v>167</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>172</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G146" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H146" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I146" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>157</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>162</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
-      </c>
-      <c r="G149" t="s">
-        <v>157</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>162</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
-      </c>
-      <c r="G151" t="s">
-        <v>157</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>162</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
-      </c>
-      <c r="G153" t="s">
-        <v>62</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>163</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>168</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
-      </c>
-      <c r="G155" t="s">
-        <v>62</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>167</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>172</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" t="s">
-        <v>167</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>172</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" t="s">
-        <v>167</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>172</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
-      </c>
-      <c r="G164" t="s">
-        <v>167</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>172</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G166" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
-      </c>
-      <c r="G167" t="s">
-        <v>163</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>168</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" t="s">
-        <v>163</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>168</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" t="s">
-        <v>167</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>172</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G171" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H171" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
-      </c>
-      <c r="G172" t="s">
-        <v>167</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>172</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G173" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H173" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I173" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
-      </c>
-      <c r="G174" t="s">
-        <v>167</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>172</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
-      </c>
-      <c r="G175" t="s">
-        <v>157</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>162</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G176" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H176" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I176" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" t="s">
-        <v>157</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>162</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G178" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H178" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I178" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G180" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="H180" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I180" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H182" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I182" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I183" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I184" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G185" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I185" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I186" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I188" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G189" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H189" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I189" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I190" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G191" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H191" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I191" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H192" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I192" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I193" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G194" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H194" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I194" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G195" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I195" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
-      </c>
-      <c r="G196" t="s">
-        <v>167</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>172</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
-      </c>
-      <c r="G198" t="s">
-        <v>157</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>162</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
-      </c>
-      <c r="G200" t="s">
-        <v>157</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>162</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
-      </c>
-      <c r="G202" t="s">
-        <v>157</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>162</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
-      </c>
-      <c r="G204" t="s">
-        <v>157</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>162</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
-      </c>
-      <c r="G206" t="s">
-        <v>173</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>178</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
-      </c>
-      <c r="G208" t="s">
-        <v>173</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>178</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J209" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
-      </c>
-      <c r="G210" t="s">
-        <v>173</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>178</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I211" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I212" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J212" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I213" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J213" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H214" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I214" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J214" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I215" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I216" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J216" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J217" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H218" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I218" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J218" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I219" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J219" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I220" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J220" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G221" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H221" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I221" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J221" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I222" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J222" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G223" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H223" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I223" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J223" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I224" t="s">
-        <v>262</v>
+        <v>16</v>
+      </c>
+      <c r="J224" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
